--- a/resources/SampleTestData.xlsx
+++ b/resources/SampleTestData.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SeleniumProject\src\acn\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jed.v.colina\workspace\seleniumframework\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -46,11 +46,14 @@
   <si>
     <t>http://google.com</t>
   </si>
+  <si>
+    <t>Banana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +940,7 @@
       <c r="FO1" s="1"/>
       <c r="FP1" s="1"/>
     </row>
-    <row r="2" spans="1:174" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:174" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -950,8 +953,12 @@
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -1134,8 +1141,12 @@
       <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
